--- a/files/export.xlsx
+++ b/files/export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Художник</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Алексеева Анастасия</t>
+  </si>
+  <si>
+    <t>2011-Sep-13 / 15:09</t>
   </si>
   <si>
     <t>10 / 23 см / картинка</t>
@@ -543,11 +546,11 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>1315912730</v>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -561,13 +564,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1315914153</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>

--- a/files/export.xlsx
+++ b/files/export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>Художник</t>
   </si>
@@ -25,6 +25,582 @@
     <t>Телефон</t>
   </si>
   <si>
+    <t>Алексеева Анастасия</t>
+  </si>
+  <si>
+    <t>952-353-09-31</t>
+  </si>
+  <si>
+    <t>Алексеева Астра Владимировна</t>
+  </si>
+  <si>
+    <t>921-186-09-44</t>
+  </si>
+  <si>
+    <t>953-366-30-29</t>
+  </si>
+  <si>
+    <t>Алексеева Вера</t>
+  </si>
+  <si>
+    <t>Альбина Николаевна</t>
+  </si>
+  <si>
+    <t>442-55-27</t>
+  </si>
+  <si>
+    <t>Андреева Анна</t>
+  </si>
+  <si>
+    <t>921-424-57-83</t>
+  </si>
+  <si>
+    <t>Андреева Юлия Александровна</t>
+  </si>
+  <si>
+    <t>904-550-03-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анна Викторовна </t>
+  </si>
+  <si>
+    <t>951-640-99-20</t>
+  </si>
+  <si>
+    <t>Бабушкина</t>
+  </si>
+  <si>
+    <t>911-752-63-74</t>
+  </si>
+  <si>
+    <t>Безрукова  Нина Леонидовна</t>
+  </si>
+  <si>
+    <t>952-38-94-780</t>
+  </si>
+  <si>
+    <t>Буршина Светлана</t>
+  </si>
+  <si>
+    <t>558-56-10</t>
+  </si>
+  <si>
+    <t>Бушейкина Елена</t>
+  </si>
+  <si>
+    <t>981-826-32-56</t>
+  </si>
+  <si>
+    <t>Вадик</t>
+  </si>
+  <si>
+    <t>952-224-01-03</t>
+  </si>
+  <si>
+    <t>Вадим карнавал</t>
+  </si>
+  <si>
+    <t>960-234-88-08</t>
+  </si>
+  <si>
+    <t>Васюкова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>904-637-52-61</t>
+  </si>
+  <si>
+    <t>Васюкова Юлия</t>
+  </si>
+  <si>
+    <t>Виктор Жанны</t>
+  </si>
+  <si>
+    <t>906-275-71-94</t>
+  </si>
+  <si>
+    <t>Виноградова Ольга</t>
+  </si>
+  <si>
+    <t>921-305-18-77</t>
+  </si>
+  <si>
+    <t>Винтер Катерина</t>
+  </si>
+  <si>
+    <t>921-416-01-89</t>
+  </si>
+  <si>
+    <t>Володя, лак</t>
+  </si>
+  <si>
+    <t>Галузина Наталья</t>
+  </si>
+  <si>
+    <t>952-364-57-97</t>
+  </si>
+  <si>
+    <t>Гамзова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>921-387-09-74</t>
+  </si>
+  <si>
+    <t>Гарина Ирина</t>
+  </si>
+  <si>
+    <t>905-266-35-07</t>
+  </si>
+  <si>
+    <t>Гилемханова Венера Дамировна</t>
+  </si>
+  <si>
+    <t>921-648-42-35</t>
+  </si>
+  <si>
+    <t>Головина Вика</t>
+  </si>
+  <si>
+    <t>952-237-64-64</t>
+  </si>
+  <si>
+    <t>Головина Наталия Владимировна</t>
+  </si>
+  <si>
+    <t>950-024-47-11</t>
+  </si>
+  <si>
+    <t>Горбачёв Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>981-795-33-74</t>
+  </si>
+  <si>
+    <t>Грудова Марина</t>
+  </si>
+  <si>
+    <t>911-732-28-37</t>
+  </si>
+  <si>
+    <t>Гуля</t>
+  </si>
+  <si>
+    <t>965-047-41-36</t>
+  </si>
+  <si>
+    <t>Дина Абрамовна</t>
+  </si>
+  <si>
+    <t>697-49-78</t>
+  </si>
+  <si>
+    <t>Доброедова Ольга Петровна</t>
+  </si>
+  <si>
+    <t>921-970-84-55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домосевич Наталья </t>
+  </si>
+  <si>
+    <t>921-38-38-885</t>
+  </si>
+  <si>
+    <t>Дубровина Татьяна</t>
+  </si>
+  <si>
+    <t>Дудяева Ася</t>
+  </si>
+  <si>
+    <t>906-22-66-517</t>
+  </si>
+  <si>
+    <t>Евланова Елена</t>
+  </si>
+  <si>
+    <t>904-511-78-66</t>
+  </si>
+  <si>
+    <t>Езовитова Лиза</t>
+  </si>
+  <si>
+    <t>951-640-82-38</t>
+  </si>
+  <si>
+    <t>Еловкова Марина</t>
+  </si>
+  <si>
+    <t>911-73-00-969</t>
+  </si>
+  <si>
+    <t>Ермакова Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>921-652-27-77</t>
+  </si>
+  <si>
+    <t>Ефименко Юлия</t>
+  </si>
+  <si>
+    <t>583-10-80</t>
+  </si>
+  <si>
+    <t>Зайцева Ирина</t>
+  </si>
+  <si>
+    <t>911-027-90-32</t>
+  </si>
+  <si>
+    <t>Заморская Юлия</t>
+  </si>
+  <si>
+    <t>921-591-34-05</t>
+  </si>
+  <si>
+    <t>Иванова Света</t>
+  </si>
+  <si>
+    <t>Ивашина Жанна</t>
+  </si>
+  <si>
+    <t>965-020-02-67</t>
+  </si>
+  <si>
+    <t>Игорь, лак</t>
+  </si>
+  <si>
+    <t>Катерина Горелово</t>
+  </si>
+  <si>
+    <t>921-928-29-30</t>
+  </si>
+  <si>
+    <t>Катя с тоненьким голосом</t>
+  </si>
+  <si>
+    <t>964-324-89-65</t>
+  </si>
+  <si>
+    <t>Ковалева Ольга</t>
+  </si>
+  <si>
+    <t>753-45-98</t>
+  </si>
+  <si>
+    <t>Косикова Ксения</t>
+  </si>
+  <si>
+    <t>911-932-55-00</t>
+  </si>
+  <si>
+    <t>Кривенко Алиса</t>
+  </si>
+  <si>
+    <t>921-770-55-60</t>
+  </si>
+  <si>
+    <t>Крисанова Ольга с Ленэкспо</t>
+  </si>
+  <si>
+    <t>911-277-87-49</t>
+  </si>
+  <si>
+    <t>Куратова Людмила</t>
+  </si>
+  <si>
+    <t>911-239-53-51</t>
+  </si>
+  <si>
+    <t>Лариса Валентиновна болтушка</t>
+  </si>
+  <si>
+    <t>952-376-04-17</t>
+  </si>
+  <si>
+    <t>Лида</t>
+  </si>
+  <si>
+    <t>911-250-09-71</t>
+  </si>
+  <si>
+    <t>Ломоносовская Наталья</t>
+  </si>
+  <si>
+    <t>960-236-82-18</t>
+  </si>
+  <si>
+    <t>Луга Татьяна</t>
+  </si>
+  <si>
+    <t>Любивая Надежда</t>
+  </si>
+  <si>
+    <t>952-355-66-16</t>
+  </si>
+  <si>
+    <t>Марианна</t>
+  </si>
+  <si>
+    <t>911-764-14-42</t>
+  </si>
+  <si>
+    <t>Марковский Андрей</t>
+  </si>
+  <si>
+    <t>911-738-68-13</t>
+  </si>
+  <si>
+    <t>Меккер Юлия</t>
+  </si>
+  <si>
+    <t>904-60-90-724</t>
+  </si>
+  <si>
+    <t>Мильберг Вероника</t>
+  </si>
+  <si>
+    <t>921-387-83-79</t>
+  </si>
+  <si>
+    <t>Минина Ольга</t>
+  </si>
+  <si>
+    <t>Морозова Лиза</t>
+  </si>
+  <si>
+    <t>950-026-65-06</t>
+  </si>
+  <si>
+    <t>Морозова Татьяна</t>
+  </si>
+  <si>
+    <t>921-188-03-45</t>
+  </si>
+  <si>
+    <t>Муравьева Алена Геннадьевна</t>
+  </si>
+  <si>
+    <t>951-671-86-91</t>
+  </si>
+  <si>
+    <t>Мурашко Анна</t>
+  </si>
+  <si>
+    <t>911-294-14-29</t>
+  </si>
+  <si>
+    <t>Наталья коты</t>
+  </si>
+  <si>
+    <t>921-426-65-75</t>
+  </si>
+  <si>
+    <t>Наталья Петровна коленки</t>
+  </si>
+  <si>
+    <t>921-09-44-693</t>
+  </si>
+  <si>
+    <t>Обидова Ирина</t>
+  </si>
+  <si>
+    <t>904-640-33-52</t>
+  </si>
+  <si>
+    <t>Овсяникова</t>
+  </si>
+  <si>
+    <t>Олег, лак</t>
+  </si>
+  <si>
+    <t>Ольга Жостово</t>
+  </si>
+  <si>
+    <t>Ольга каскадер</t>
+  </si>
+  <si>
+    <t>981-701-82-98</t>
+  </si>
+  <si>
+    <t>Подлесная Зоя</t>
+  </si>
+  <si>
+    <t>921-570-77-49</t>
+  </si>
+  <si>
+    <t>Поликова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>921-794-25-53</t>
+  </si>
+  <si>
+    <t>Попова Наталья</t>
+  </si>
+  <si>
+    <t>325-47-34</t>
+  </si>
+  <si>
+    <t>Приколотина Галина Николаевна</t>
+  </si>
+  <si>
+    <t>911-264-86-92</t>
+  </si>
+  <si>
+    <t>Пропастенко, лак</t>
+  </si>
+  <si>
+    <t>Пузырева Галина часы</t>
+  </si>
+  <si>
+    <t>981-737-91-97</t>
+  </si>
+  <si>
+    <t>Пупкевич</t>
+  </si>
+  <si>
+    <t>Ремезова Женя</t>
+  </si>
+  <si>
+    <t>952-360-65-28</t>
+  </si>
+  <si>
+    <t>Ровенко Марина (из Лавры)</t>
+  </si>
+  <si>
+    <t>911-939-00-20</t>
+  </si>
+  <si>
+    <t>Савина Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>911-262-11-03</t>
+  </si>
+  <si>
+    <t>Саша, лак</t>
+  </si>
+  <si>
+    <t>Сергей Юрьевич (яйца сюжет)</t>
+  </si>
+  <si>
+    <t>905-217-37-89</t>
+  </si>
+  <si>
+    <t>Сероклин Лена</t>
+  </si>
+  <si>
+    <t>Слотина Ольга</t>
+  </si>
+  <si>
+    <t>Смирнова</t>
+  </si>
+  <si>
+    <t>Соколова Наталья Никитична</t>
+  </si>
+  <si>
+    <t>952-238-66-21</t>
+  </si>
+  <si>
+    <t>Станкевич Ольга</t>
+  </si>
+  <si>
+    <t>906-267-08-35</t>
+  </si>
+  <si>
+    <t>Степанова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Татьяна Петровна</t>
+  </si>
+  <si>
+    <t>905-252-72-44</t>
+  </si>
+  <si>
+    <t>Тетерина Антонина  Дмитриевна</t>
+  </si>
+  <si>
+    <t>709-66-84</t>
+  </si>
+  <si>
+    <t>Ушакова Валентина</t>
+  </si>
+  <si>
+    <t>Фаденкова Мария</t>
+  </si>
+  <si>
+    <t>952-342-75-16</t>
+  </si>
+  <si>
+    <t>Фёдорова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>794-79-07</t>
+  </si>
+  <si>
+    <t>Филипова Ольга</t>
+  </si>
+  <si>
+    <t>911-742-29-74</t>
+  </si>
+  <si>
+    <t>Фроолова Мария Игоревна</t>
+  </si>
+  <si>
+    <t>950-028-46-52</t>
+  </si>
+  <si>
+    <t>Хирург Ирина</t>
+  </si>
+  <si>
+    <t>905-270-48-05</t>
+  </si>
+  <si>
+    <t>Хрусталева Нина Васильевна</t>
+  </si>
+  <si>
+    <t>Черлова Екатерина</t>
+  </si>
+  <si>
+    <t>921-39-50-136</t>
+  </si>
+  <si>
+    <t>Чистякова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>952-206-05-93</t>
+  </si>
+  <si>
+    <t>Шаклеина Оксана</t>
+  </si>
+  <si>
+    <t>911-827-95-44</t>
+  </si>
+  <si>
+    <t>Эдита</t>
+  </si>
+  <si>
+    <t>905-259-52-54</t>
+  </si>
+  <si>
+    <t>Эстер</t>
+  </si>
+  <si>
+    <t>911-180-92-07</t>
+  </si>
+  <si>
+    <t>Юдина Лена</t>
+  </si>
+  <si>
+    <t>911-946-07-24</t>
+  </si>
+  <si>
+    <t>Юрьева Ольга</t>
+  </si>
+  <si>
+    <t>Янковская Любовь Алексеевна</t>
+  </si>
+  <si>
+    <t>909-577-19-97</t>
+  </si>
+  <si>
     <t>Тип изделия</t>
   </si>
   <si>
@@ -37,6 +613,279 @@
     <t>Цена</t>
   </si>
   <si>
+    <t>большая</t>
+  </si>
+  <si>
+    <t>картинка</t>
+  </si>
+  <si>
+    <t>оформление</t>
+  </si>
+  <si>
+    <t>лицо</t>
+  </si>
+  <si>
+    <t>пузатая</t>
+  </si>
+  <si>
+    <t>23 см</t>
+  </si>
+  <si>
+    <t>19 см</t>
+  </si>
+  <si>
+    <t>17 см</t>
+  </si>
+  <si>
+    <t>Жостово</t>
+  </si>
+  <si>
+    <t>14 см</t>
+  </si>
+  <si>
+    <t>оформление+лицо</t>
+  </si>
+  <si>
+    <t>сарафан</t>
+  </si>
+  <si>
+    <t>сарафан+лицо</t>
+  </si>
+  <si>
+    <t>18 см</t>
+  </si>
+  <si>
+    <t>картинка Лена</t>
+  </si>
+  <si>
+    <t>картинка Спас</t>
+  </si>
+  <si>
+    <t>картинка Юрьева, Галузина</t>
+  </si>
+  <si>
+    <t>картинка тройка</t>
+  </si>
+  <si>
+    <t>Хохлома целиковая</t>
+  </si>
+  <si>
+    <t>Хохлома платок часть</t>
+  </si>
+  <si>
+    <t>Хохлома платок доделка</t>
+  </si>
+  <si>
+    <t>Малевич</t>
+  </si>
+  <si>
+    <t>Сердце простое</t>
+  </si>
+  <si>
+    <t>Сердце Вика</t>
+  </si>
+  <si>
+    <t>Хохлома модерн</t>
+  </si>
+  <si>
+    <t>Карнавал</t>
+  </si>
+  <si>
+    <t>Шанель</t>
+  </si>
+  <si>
+    <t>Климт</t>
+  </si>
+  <si>
+    <t>Моне</t>
+  </si>
+  <si>
+    <t>Чёрная рябина</t>
+  </si>
+  <si>
+    <t>кот</t>
+  </si>
+  <si>
+    <t>балет</t>
+  </si>
+  <si>
+    <t>Хохлома</t>
+  </si>
+  <si>
+    <t>Сердце сложное</t>
+  </si>
+  <si>
+    <t>Жостово сложная</t>
+  </si>
+  <si>
+    <t>Круговая сказка</t>
+  </si>
+  <si>
+    <t>14 см пузатая</t>
+  </si>
+  <si>
+    <t>9 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жостово </t>
+  </si>
+  <si>
+    <t>неваляшка</t>
+  </si>
+  <si>
+    <t>картинка+лицо</t>
+  </si>
+  <si>
+    <t>малая</t>
+  </si>
+  <si>
+    <t>Жар-птица</t>
+  </si>
+  <si>
+    <t>Санта простой</t>
+  </si>
+  <si>
+    <t>Санта сложный</t>
+  </si>
+  <si>
+    <t>футляр</t>
+  </si>
+  <si>
+    <t>Жостово сложный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ангел </t>
+  </si>
+  <si>
+    <t>куколка</t>
+  </si>
+  <si>
+    <t>Цветы</t>
+  </si>
+  <si>
+    <t>яйцо</t>
+  </si>
+  <si>
+    <t>Сюжет зима</t>
+  </si>
+  <si>
+    <t>Ангел</t>
+  </si>
+  <si>
+    <t>Ангел с лицом</t>
+  </si>
+  <si>
+    <t>Гжель</t>
+  </si>
+  <si>
+    <t>Санта в ассортименте</t>
+  </si>
+  <si>
+    <t>Снегурочка</t>
+  </si>
+  <si>
+    <t>Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кот </t>
+  </si>
+  <si>
+    <t>Спас голубой</t>
+  </si>
+  <si>
+    <t>Спас золотой</t>
+  </si>
+  <si>
+    <t>Федоскино</t>
+  </si>
+  <si>
+    <t>Русский север</t>
+  </si>
+  <si>
+    <t>Фаберже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Девушка в медальоне </t>
+  </si>
+  <si>
+    <t>Девушка в медальоне -лицо</t>
+  </si>
+  <si>
+    <t>Девушка в медальоне -оформлени</t>
+  </si>
+  <si>
+    <t>колокольчик</t>
+  </si>
+  <si>
+    <t>малый</t>
+  </si>
+  <si>
+    <t>Спас</t>
+  </si>
+  <si>
+    <t>большой</t>
+  </si>
+  <si>
+    <t>Шар</t>
+  </si>
+  <si>
+    <t>магнит</t>
+  </si>
+  <si>
+    <t>матрешка</t>
+  </si>
+  <si>
+    <t>цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хохлома </t>
+  </si>
+  <si>
+    <t>Полоски</t>
+  </si>
+  <si>
+    <t>Питер Вадима</t>
+  </si>
+  <si>
+    <t>Модерн</t>
+  </si>
+  <si>
+    <t>Питер Анны</t>
+  </si>
+  <si>
+    <t>круглый</t>
+  </si>
+  <si>
+    <t>браслет</t>
+  </si>
+  <si>
+    <t>широкий</t>
+  </si>
+  <si>
+    <t>Кракилюр</t>
+  </si>
+  <si>
+    <t>Огурцы</t>
+  </si>
+  <si>
+    <t>Сердце</t>
+  </si>
+  <si>
+    <t>Зебра</t>
+  </si>
+  <si>
+    <t>узор, поталь</t>
+  </si>
+  <si>
+    <t>средний шир.</t>
+  </si>
+  <si>
+    <t>средний узкий</t>
+  </si>
+  <si>
+    <t>узкий</t>
+  </si>
+  <si>
     <t>Мастер</t>
   </si>
   <si>
@@ -52,19 +901,34 @@
     <t>комментарий</t>
   </si>
   <si>
-    <t>Алексеева Анастасия</t>
-  </si>
-  <si>
-    <t>2011-Sep-13 / 15:09</t>
-  </si>
-  <si>
-    <t>10 / 23 см / картинка</t>
-  </si>
-  <si>
-    <t>Васюкова Светлана Викторовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ангел  / ангел  / ангел </t>
+    <t>автор комментария</t>
+  </si>
+  <si>
+    <t>2011-Sep-22 / 16:09</t>
+  </si>
+  <si>
+    <t>20 / большая / картинка</t>
+  </si>
+  <si>
+    <t>5 / 14 см пузатая / Карнавал</t>
+  </si>
+  <si>
+    <t>2011-Sep-22 / 17:09</t>
+  </si>
+  <si>
+    <t>10 / 17 см / картинка</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>7 / оформление / оформление</t>
+  </si>
+  <si>
+    <t>2011-Sep-23 / 01:09</t>
+  </si>
+  <si>
+    <t>15 / пузатая / картинка</t>
   </si>
 </sst>
 </file>
@@ -112,18 +976,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +1289,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -438,6 +1305,824 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +2146,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -474,17 +2159,4259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>5</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="4">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
+        <v>5</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>5</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>5</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
+        <v>5</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>5</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>5</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>5</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
+        <v>5</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4">
+        <v>5</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4">
+        <v>5</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4">
+        <v>5</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4">
+        <v>5</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4">
+        <v>5</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4">
+        <v>5</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4">
+        <v>5</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4">
+        <v>5</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4">
+        <v>5</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4">
+        <v>5</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4">
+        <v>5</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4">
+        <v>5</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4">
+        <v>5</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>5</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4">
+        <v>5</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4">
+        <v>5</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4">
+        <v>5</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4">
+        <v>5</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4">
+        <v>5</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4">
+        <v>5</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4">
+        <v>5</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4">
+        <v>5</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4">
+        <v>5</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
+        <v>5</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
+        <v>5</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
+        <v>5</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
+        <v>5</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
+        <v>5</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
+        <v>5</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4">
+        <v>5</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4">
+        <v>5</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4">
+        <v>5</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4">
+        <v>5</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4">
+        <v>5</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4">
+        <v>5</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4">
+        <v>5</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4">
+        <v>5</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4">
+        <v>5</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4">
+        <v>5</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4">
+        <v>5</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4">
+        <v>5</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4">
+        <v>5</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4">
+        <v>5</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4">
+        <v>5</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="B114" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4">
+        <v>3</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4">
+        <v>3</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4">
+        <v>3</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4">
+        <v>3</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4">
+        <v>3</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4">
+        <v>3</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4">
+        <v>3</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4">
+        <v>3</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4">
+        <v>3</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4">
+        <v>3</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4">
+        <v>3</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4">
+        <v>3</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4">
+        <v>3</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4">
+        <v>3</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4">
+        <v>3</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4">
+        <v>3</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4">
+        <v>3</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4">
+        <v>3</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4">
+        <v>3</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4">
+        <v>3</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4">
+        <v>3</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D172" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D173" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D174" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D175" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D176" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D179" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D180" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D181" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D182" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D186" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D187" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D188" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D189" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D190" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D193" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D196" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D200" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D201" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D202" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D204" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D206" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D210" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D212" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D213" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D218" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D219" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D221" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D222" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D265" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D266" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D302" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D303" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D304" s="4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -508,77 +6435,200 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25" customWidth="true" style="0"/>
     <col min="3" max="3" width="30" customWidth="true" style="0"/>
     <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="6" max="6" width="40" customWidth="true" style="0"/>
+    <col min="7" max="7" width="40" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>900</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E7" s="2">
+        <v>1560</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/files/export.xlsx
+++ b/files/export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>Художник</t>
   </si>
@@ -25,582 +25,582 @@
     <t>Телефон</t>
   </si>
   <si>
+    <t>Чистякова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>952-206-05-93</t>
+  </si>
+  <si>
+    <t>Зайцева Ирина</t>
+  </si>
+  <si>
+    <t>911-027-90-32</t>
+  </si>
+  <si>
+    <t>Галузина Наталья</t>
+  </si>
+  <si>
+    <t>952-364-57-97</t>
+  </si>
+  <si>
+    <t>Бушейкина Елена</t>
+  </si>
+  <si>
+    <t>981-826-32-56</t>
+  </si>
+  <si>
+    <t>Гарина Ирина</t>
+  </si>
+  <si>
+    <t>905-266-35-07</t>
+  </si>
+  <si>
+    <t>Юрьева Ольга</t>
+  </si>
+  <si>
+    <t>Морозова Татьяна</t>
+  </si>
+  <si>
+    <t>921-188-03-45</t>
+  </si>
+  <si>
+    <t>Буршина Светлана</t>
+  </si>
+  <si>
+    <t>558-56-10</t>
+  </si>
+  <si>
+    <t>Ольга Жостово</t>
+  </si>
+  <si>
+    <t>921-970-84-55</t>
+  </si>
+  <si>
+    <t>Ивашина Жанна</t>
+  </si>
+  <si>
+    <t>965-020-02-67</t>
+  </si>
+  <si>
+    <t>Еловкова Марина</t>
+  </si>
+  <si>
+    <t>911-73-00-969</t>
+  </si>
+  <si>
+    <t>Лида</t>
+  </si>
+  <si>
+    <t>911-250-09-71</t>
+  </si>
+  <si>
+    <t>Соколова Наталья Никитична</t>
+  </si>
+  <si>
+    <t>952-238-66-21</t>
+  </si>
+  <si>
+    <t>Винтер Катерина</t>
+  </si>
+  <si>
+    <t>921-416-01-89</t>
+  </si>
+  <si>
+    <t>Татьяна Петровна</t>
+  </si>
+  <si>
+    <t>905-252-72-44</t>
+  </si>
+  <si>
+    <t>Юдина Лена</t>
+  </si>
+  <si>
+    <t>911-946-07-24</t>
+  </si>
+  <si>
+    <t>Бабушкина</t>
+  </si>
+  <si>
+    <t>911-752-63-74</t>
+  </si>
+  <si>
+    <t>Овсяникова</t>
+  </si>
+  <si>
+    <t>Езовитова Лиза</t>
+  </si>
+  <si>
+    <t>951-640-82-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анна Викторовна </t>
+  </si>
+  <si>
+    <t>951-640-99-20</t>
+  </si>
+  <si>
+    <t>Луга Татьяна</t>
+  </si>
+  <si>
+    <t>Виноградова Ольга</t>
+  </si>
+  <si>
+    <t>921-305-18-77</t>
+  </si>
+  <si>
+    <t>Ломоносовская Наталья</t>
+  </si>
+  <si>
+    <t>960-236-82-18</t>
+  </si>
+  <si>
+    <t>Дубровина Татьяна</t>
+  </si>
+  <si>
+    <t>Хирург Ирина</t>
+  </si>
+  <si>
+    <t>905-270-48-05</t>
+  </si>
+  <si>
+    <t>Хрусталева Нина Васильевна</t>
+  </si>
+  <si>
+    <t>Грудова Марина</t>
+  </si>
+  <si>
+    <t>911-732-28-37</t>
+  </si>
+  <si>
+    <t>Алексеева Вера</t>
+  </si>
+  <si>
+    <t>Иванова Света</t>
+  </si>
+  <si>
+    <t>Слотина Ольга</t>
+  </si>
+  <si>
+    <t>Дина Абрамовна</t>
+  </si>
+  <si>
+    <t>697-49-78</t>
+  </si>
+  <si>
+    <t>Марианна</t>
+  </si>
+  <si>
+    <t>911-764-14-42</t>
+  </si>
+  <si>
+    <t>Ушакова Валентина</t>
+  </si>
+  <si>
+    <t>Смирнова</t>
+  </si>
+  <si>
+    <t>Минина Ольга</t>
+  </si>
+  <si>
+    <t>Пупкевич</t>
+  </si>
+  <si>
+    <t>Вадим карнавал</t>
+  </si>
+  <si>
+    <t>960-234-88-08</t>
+  </si>
+  <si>
+    <t>Вадик</t>
+  </si>
+  <si>
+    <t>952-224-01-03</t>
+  </si>
+  <si>
+    <t>Гуля</t>
+  </si>
+  <si>
+    <t>965-047-41-36</t>
+  </si>
+  <si>
+    <t>Эдита</t>
+  </si>
+  <si>
+    <t>905-259-52-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домосевич Наталья </t>
+  </si>
+  <si>
+    <t>921-38-38-885</t>
+  </si>
+  <si>
+    <t>Ольга каскадер</t>
+  </si>
+  <si>
+    <t>981-701-82-98</t>
+  </si>
+  <si>
+    <t>Катерина Горелово</t>
+  </si>
+  <si>
+    <t>921-928-29-30</t>
+  </si>
+  <si>
+    <t>Любивая Надежда</t>
+  </si>
+  <si>
+    <t>952-355-66-16</t>
+  </si>
+  <si>
+    <t>Подлесная Зоя</t>
+  </si>
+  <si>
+    <t>921-570-77-49</t>
+  </si>
+  <si>
+    <t>Евланова Елена</t>
+  </si>
+  <si>
+    <t>904-511-78-66</t>
+  </si>
+  <si>
+    <t>Станкевич Ольга</t>
+  </si>
+  <si>
+    <t>906-267-08-35</t>
+  </si>
+  <si>
+    <t>Куратова Людмила</t>
+  </si>
+  <si>
+    <t>911-239-53-51</t>
+  </si>
+  <si>
+    <t>Наталья Петровна коленки</t>
+  </si>
+  <si>
+    <t>921-09-44-693</t>
+  </si>
+  <si>
+    <t>Альбина Николаевна</t>
+  </si>
+  <si>
+    <t>442-55-27</t>
+  </si>
+  <si>
+    <t>Ровенко Марина (из Лавры)</t>
+  </si>
+  <si>
+    <t>911-939-00-20</t>
+  </si>
+  <si>
+    <t>Мильберг Вероника</t>
+  </si>
+  <si>
+    <t>921-387-83-79</t>
+  </si>
+  <si>
+    <t>Крисанова Ольга с Ленэкспо</t>
+  </si>
+  <si>
+    <t>911-277-87-49</t>
+  </si>
+  <si>
+    <t>Приколотина Галина Николаевна</t>
+  </si>
+  <si>
+    <t>911-264-86-92</t>
+  </si>
+  <si>
+    <t>Сергей Юрьевич (яйца сюжет)</t>
+  </si>
+  <si>
+    <t>905-217-37-89</t>
+  </si>
+  <si>
+    <t>Лариса Валентиновна болтушка</t>
+  </si>
+  <si>
+    <t>952-376-04-17</t>
+  </si>
+  <si>
+    <t>Савина Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>911-262-11-03</t>
+  </si>
+  <si>
+    <t>Косикова Ксения</t>
+  </si>
+  <si>
+    <t>911-932-55-00</t>
+  </si>
+  <si>
+    <t>Горбачёв Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>981-795-33-74</t>
+  </si>
+  <si>
+    <t>Поликова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>921-794-25-53</t>
+  </si>
+  <si>
+    <t>Мурашко Анна</t>
+  </si>
+  <si>
+    <t>911-294-14-29</t>
+  </si>
+  <si>
+    <t>Обидова Ирина</t>
+  </si>
+  <si>
+    <t>904-640-33-52</t>
+  </si>
+  <si>
+    <t>Пузырева Галина часы</t>
+  </si>
+  <si>
+    <t>981-737-91-97</t>
+  </si>
+  <si>
+    <t>Виктор Жанны</t>
+  </si>
+  <si>
+    <t>906-275-71-94</t>
+  </si>
+  <si>
+    <t>Ковалева Ольга</t>
+  </si>
+  <si>
+    <t>753-45-98</t>
+  </si>
+  <si>
+    <t>Наталья коты</t>
+  </si>
+  <si>
+    <t>921-426-65-75</t>
+  </si>
+  <si>
+    <t>Морозова Лиза</t>
+  </si>
+  <si>
+    <t>950-026-65-06</t>
+  </si>
+  <si>
+    <t>Катя с тоненьким голосом</t>
+  </si>
+  <si>
+    <t>964-324-89-65</t>
+  </si>
+  <si>
+    <t>Головина Вика</t>
+  </si>
+  <si>
+    <t>952-237-64-64</t>
+  </si>
+  <si>
+    <t>Филипова Ольга</t>
+  </si>
+  <si>
+    <t>911-742-29-74</t>
+  </si>
+  <si>
+    <t>Андреева Анна</t>
+  </si>
+  <si>
+    <t>921-424-57-83</t>
+  </si>
+  <si>
+    <t>Эстер</t>
+  </si>
+  <si>
+    <t>911-180-92-07</t>
+  </si>
+  <si>
+    <t>Тетерина Антонина  Дмитриевна</t>
+  </si>
+  <si>
+    <t>709-66-84</t>
+  </si>
+  <si>
+    <t>Меккер Юлия</t>
+  </si>
+  <si>
+    <t>904-60-90-724</t>
+  </si>
+  <si>
+    <t>Сероклин Лена</t>
+  </si>
+  <si>
+    <t>Кривенко Алиса</t>
+  </si>
+  <si>
+    <t>921-770-55-60</t>
+  </si>
+  <si>
+    <t>Шаклеина Оксана</t>
+  </si>
+  <si>
+    <t>911-827-95-44</t>
+  </si>
+  <si>
+    <t>Безрукова  Нина Леонидовна</t>
+  </si>
+  <si>
+    <t>952-38-94-780</t>
+  </si>
+  <si>
+    <t>Дудяева Ася</t>
+  </si>
+  <si>
+    <t>906-22-66-517</t>
+  </si>
+  <si>
+    <t>Попова Наталья</t>
+  </si>
+  <si>
+    <t>325-47-34</t>
+  </si>
+  <si>
+    <t>Фаденкова Мария</t>
+  </si>
+  <si>
+    <t>952-342-75-16</t>
+  </si>
+  <si>
+    <t>Васюкова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>904-637-52-61</t>
+  </si>
+  <si>
+    <t>Марковский Андрей</t>
+  </si>
+  <si>
+    <t>911-738-68-13</t>
+  </si>
+  <si>
+    <t>Заморская Юлия</t>
+  </si>
+  <si>
+    <t>921-591-34-05</t>
+  </si>
+  <si>
+    <t>Ремезова Женя</t>
+  </si>
+  <si>
+    <t>952-360-65-28</t>
+  </si>
+  <si>
+    <t>Олег, лак</t>
+  </si>
+  <si>
+    <t>Саша, лак</t>
+  </si>
+  <si>
+    <t>Игорь, лак</t>
+  </si>
+  <si>
+    <t>Володя, лак</t>
+  </si>
+  <si>
+    <t>Пропастенко, лак</t>
+  </si>
+  <si>
+    <t>Ефименко Юлия</t>
+  </si>
+  <si>
+    <t>583-10-80</t>
+  </si>
+  <si>
+    <t>Фроолова Мария Игоревна</t>
+  </si>
+  <si>
+    <t>950-028-46-52</t>
+  </si>
+  <si>
+    <t>Янковская Любовь Алексеевна</t>
+  </si>
+  <si>
+    <t>909-577-19-97</t>
+  </si>
+  <si>
     <t>Алексеева Анастасия</t>
   </si>
   <si>
     <t>952-353-09-31</t>
   </si>
   <si>
+    <t>Ермакова Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>921-652-27-77</t>
+  </si>
+  <si>
+    <t>Муравьева Алена Геннадьевна</t>
+  </si>
+  <si>
+    <t>951-671-86-91</t>
+  </si>
+  <si>
+    <t>Васюкова Юлия</t>
+  </si>
+  <si>
+    <t>Фёдорова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>794-79-07</t>
+  </si>
+  <si>
+    <t>Гилемханова Венера Дамировна</t>
+  </si>
+  <si>
+    <t>921-648-42-35</t>
+  </si>
+  <si>
+    <t>Степанова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Андреева Юлия Александровна</t>
+  </si>
+  <si>
+    <t>904-550-03-89</t>
+  </si>
+  <si>
     <t>Алексеева Астра Владимировна</t>
   </si>
   <si>
     <t>921-186-09-44</t>
   </si>
   <si>
+    <t>Головина Наталия Владимировна</t>
+  </si>
+  <si>
+    <t>950-024-47-11</t>
+  </si>
+  <si>
+    <t>Черлова Екатерина</t>
+  </si>
+  <si>
+    <t>921-39-50-136</t>
+  </si>
+  <si>
+    <t>Гамзова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>921-387-09-74</t>
+  </si>
+  <si>
+    <t>Доброедова Ольга Петровна</t>
+  </si>
+  <si>
     <t>953-366-30-29</t>
   </si>
   <si>
-    <t>Алексеева Вера</t>
-  </si>
-  <si>
-    <t>Альбина Николаевна</t>
-  </si>
-  <si>
-    <t>442-55-27</t>
-  </si>
-  <si>
-    <t>Андреева Анна</t>
-  </si>
-  <si>
-    <t>921-424-57-83</t>
-  </si>
-  <si>
-    <t>Андреева Юлия Александровна</t>
-  </si>
-  <si>
-    <t>904-550-03-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анна Викторовна </t>
-  </si>
-  <si>
-    <t>951-640-99-20</t>
-  </si>
-  <si>
-    <t>Бабушкина</t>
-  </si>
-  <si>
-    <t>911-752-63-74</t>
-  </si>
-  <si>
-    <t>Безрукова  Нина Леонидовна</t>
-  </si>
-  <si>
-    <t>952-38-94-780</t>
-  </si>
-  <si>
-    <t>Буршина Светлана</t>
-  </si>
-  <si>
-    <t>558-56-10</t>
-  </si>
-  <si>
-    <t>Бушейкина Елена</t>
-  </si>
-  <si>
-    <t>981-826-32-56</t>
-  </si>
-  <si>
-    <t>Вадик</t>
-  </si>
-  <si>
-    <t>952-224-01-03</t>
-  </si>
-  <si>
-    <t>Вадим карнавал</t>
-  </si>
-  <si>
-    <t>960-234-88-08</t>
-  </si>
-  <si>
-    <t>Васюкова Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>904-637-52-61</t>
-  </si>
-  <si>
-    <t>Васюкова Юлия</t>
-  </si>
-  <si>
-    <t>Виктор Жанны</t>
-  </si>
-  <si>
-    <t>906-275-71-94</t>
-  </si>
-  <si>
-    <t>Виноградова Ольга</t>
-  </si>
-  <si>
-    <t>921-305-18-77</t>
-  </si>
-  <si>
-    <t>Винтер Катерина</t>
-  </si>
-  <si>
-    <t>921-416-01-89</t>
-  </si>
-  <si>
-    <t>Володя, лак</t>
-  </si>
-  <si>
-    <t>Галузина Наталья</t>
-  </si>
-  <si>
-    <t>952-364-57-97</t>
-  </si>
-  <si>
-    <t>Гамзова Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>921-387-09-74</t>
-  </si>
-  <si>
-    <t>Гарина Ирина</t>
-  </si>
-  <si>
-    <t>905-266-35-07</t>
-  </si>
-  <si>
-    <t>Гилемханова Венера Дамировна</t>
-  </si>
-  <si>
-    <t>921-648-42-35</t>
-  </si>
-  <si>
-    <t>Головина Вика</t>
-  </si>
-  <si>
-    <t>952-237-64-64</t>
-  </si>
-  <si>
-    <t>Головина Наталия Владимировна</t>
-  </si>
-  <si>
-    <t>950-024-47-11</t>
-  </si>
-  <si>
-    <t>Горбачёв Андрей Николаевич</t>
-  </si>
-  <si>
-    <t>981-795-33-74</t>
-  </si>
-  <si>
-    <t>Грудова Марина</t>
-  </si>
-  <si>
-    <t>911-732-28-37</t>
-  </si>
-  <si>
-    <t>Гуля</t>
-  </si>
-  <si>
-    <t>965-047-41-36</t>
-  </si>
-  <si>
-    <t>Дина Абрамовна</t>
-  </si>
-  <si>
-    <t>697-49-78</t>
-  </si>
-  <si>
-    <t>Доброедова Ольга Петровна</t>
-  </si>
-  <si>
-    <t>921-970-84-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Домосевич Наталья </t>
-  </si>
-  <si>
-    <t>921-38-38-885</t>
-  </si>
-  <si>
-    <t>Дубровина Татьяна</t>
-  </si>
-  <si>
-    <t>Дудяева Ася</t>
-  </si>
-  <si>
-    <t>906-22-66-517</t>
-  </si>
-  <si>
-    <t>Евланова Елена</t>
-  </si>
-  <si>
-    <t>904-511-78-66</t>
-  </si>
-  <si>
-    <t>Езовитова Лиза</t>
-  </si>
-  <si>
-    <t>951-640-82-38</t>
-  </si>
-  <si>
-    <t>Еловкова Марина</t>
-  </si>
-  <si>
-    <t>911-73-00-969</t>
-  </si>
-  <si>
-    <t>Ермакова Наталья Анатольевна</t>
-  </si>
-  <si>
-    <t>921-652-27-77</t>
-  </si>
-  <si>
-    <t>Ефименко Юлия</t>
-  </si>
-  <si>
-    <t>583-10-80</t>
-  </si>
-  <si>
-    <t>Зайцева Ирина</t>
-  </si>
-  <si>
-    <t>911-027-90-32</t>
-  </si>
-  <si>
-    <t>Заморская Юлия</t>
-  </si>
-  <si>
-    <t>921-591-34-05</t>
-  </si>
-  <si>
-    <t>Иванова Света</t>
-  </si>
-  <si>
-    <t>Ивашина Жанна</t>
-  </si>
-  <si>
-    <t>965-020-02-67</t>
-  </si>
-  <si>
-    <t>Игорь, лак</t>
-  </si>
-  <si>
-    <t>Катерина Горелово</t>
-  </si>
-  <si>
-    <t>921-928-29-30</t>
-  </si>
-  <si>
-    <t>Катя с тоненьким голосом</t>
-  </si>
-  <si>
-    <t>964-324-89-65</t>
-  </si>
-  <si>
-    <t>Ковалева Ольга</t>
-  </si>
-  <si>
-    <t>753-45-98</t>
-  </si>
-  <si>
-    <t>Косикова Ксения</t>
-  </si>
-  <si>
-    <t>911-932-55-00</t>
-  </si>
-  <si>
-    <t>Кривенко Алиса</t>
-  </si>
-  <si>
-    <t>921-770-55-60</t>
-  </si>
-  <si>
-    <t>Крисанова Ольга с Ленэкспо</t>
-  </si>
-  <si>
-    <t>911-277-87-49</t>
-  </si>
-  <si>
-    <t>Куратова Людмила</t>
-  </si>
-  <si>
-    <t>911-239-53-51</t>
-  </si>
-  <si>
-    <t>Лариса Валентиновна болтушка</t>
-  </si>
-  <si>
-    <t>952-376-04-17</t>
-  </si>
-  <si>
-    <t>Лида</t>
-  </si>
-  <si>
-    <t>911-250-09-71</t>
-  </si>
-  <si>
-    <t>Ломоносовская Наталья</t>
-  </si>
-  <si>
-    <t>960-236-82-18</t>
-  </si>
-  <si>
-    <t>Луга Татьяна</t>
-  </si>
-  <si>
-    <t>Любивая Надежда</t>
-  </si>
-  <si>
-    <t>952-355-66-16</t>
-  </si>
-  <si>
-    <t>Марианна</t>
-  </si>
-  <si>
-    <t>911-764-14-42</t>
-  </si>
-  <si>
-    <t>Марковский Андрей</t>
-  </si>
-  <si>
-    <t>911-738-68-13</t>
-  </si>
-  <si>
-    <t>Меккер Юлия</t>
-  </si>
-  <si>
-    <t>904-60-90-724</t>
-  </si>
-  <si>
-    <t>Мильберг Вероника</t>
-  </si>
-  <si>
-    <t>921-387-83-79</t>
-  </si>
-  <si>
-    <t>Минина Ольга</t>
-  </si>
-  <si>
-    <t>Морозова Лиза</t>
-  </si>
-  <si>
-    <t>950-026-65-06</t>
-  </si>
-  <si>
-    <t>Морозова Татьяна</t>
-  </si>
-  <si>
-    <t>921-188-03-45</t>
-  </si>
-  <si>
-    <t>Муравьева Алена Геннадьевна</t>
-  </si>
-  <si>
-    <t>951-671-86-91</t>
-  </si>
-  <si>
-    <t>Мурашко Анна</t>
-  </si>
-  <si>
-    <t>911-294-14-29</t>
-  </si>
-  <si>
-    <t>Наталья коты</t>
-  </si>
-  <si>
-    <t>921-426-65-75</t>
-  </si>
-  <si>
-    <t>Наталья Петровна коленки</t>
-  </si>
-  <si>
-    <t>921-09-44-693</t>
-  </si>
-  <si>
-    <t>Обидова Ирина</t>
-  </si>
-  <si>
-    <t>904-640-33-52</t>
-  </si>
-  <si>
-    <t>Овсяникова</t>
-  </si>
-  <si>
-    <t>Олег, лак</t>
-  </si>
-  <si>
-    <t>Ольга Жостово</t>
-  </si>
-  <si>
-    <t>Ольга каскадер</t>
-  </si>
-  <si>
-    <t>981-701-82-98</t>
-  </si>
-  <si>
-    <t>Подлесная Зоя</t>
-  </si>
-  <si>
-    <t>921-570-77-49</t>
-  </si>
-  <si>
-    <t>Поликова Елена Евгеньевна</t>
-  </si>
-  <si>
-    <t>921-794-25-53</t>
-  </si>
-  <si>
-    <t>Попова Наталья</t>
-  </si>
-  <si>
-    <t>325-47-34</t>
-  </si>
-  <si>
-    <t>Приколотина Галина Николаевна</t>
-  </si>
-  <si>
-    <t>911-264-86-92</t>
-  </si>
-  <si>
-    <t>Пропастенко, лак</t>
-  </si>
-  <si>
-    <t>Пузырева Галина часы</t>
-  </si>
-  <si>
-    <t>981-737-91-97</t>
-  </si>
-  <si>
-    <t>Пупкевич</t>
-  </si>
-  <si>
-    <t>Ремезова Женя</t>
-  </si>
-  <si>
-    <t>952-360-65-28</t>
-  </si>
-  <si>
-    <t>Ровенко Марина (из Лавры)</t>
-  </si>
-  <si>
-    <t>911-939-00-20</t>
-  </si>
-  <si>
-    <t>Савина Наталья Юрьевна</t>
-  </si>
-  <si>
-    <t>911-262-11-03</t>
-  </si>
-  <si>
-    <t>Саша, лак</t>
-  </si>
-  <si>
-    <t>Сергей Юрьевич (яйца сюжет)</t>
-  </si>
-  <si>
-    <t>905-217-37-89</t>
-  </si>
-  <si>
-    <t>Сероклин Лена</t>
-  </si>
-  <si>
-    <t>Слотина Ольга</t>
-  </si>
-  <si>
-    <t>Смирнова</t>
-  </si>
-  <si>
-    <t>Соколова Наталья Никитична</t>
-  </si>
-  <si>
-    <t>952-238-66-21</t>
-  </si>
-  <si>
-    <t>Станкевич Ольга</t>
-  </si>
-  <si>
-    <t>906-267-08-35</t>
-  </si>
-  <si>
-    <t>Степанова Ольга Алексеевна</t>
-  </si>
-  <si>
-    <t>Татьяна Петровна</t>
-  </si>
-  <si>
-    <t>905-252-72-44</t>
-  </si>
-  <si>
-    <t>Тетерина Антонина  Дмитриевна</t>
-  </si>
-  <si>
-    <t>709-66-84</t>
-  </si>
-  <si>
-    <t>Ушакова Валентина</t>
-  </si>
-  <si>
-    <t>Фаденкова Мария</t>
-  </si>
-  <si>
-    <t>952-342-75-16</t>
-  </si>
-  <si>
-    <t>Фёдорова Елена Михайловна</t>
-  </si>
-  <si>
-    <t>794-79-07</t>
-  </si>
-  <si>
-    <t>Филипова Ольга</t>
-  </si>
-  <si>
-    <t>911-742-29-74</t>
-  </si>
-  <si>
-    <t>Фроолова Мария Игоревна</t>
-  </si>
-  <si>
-    <t>950-028-46-52</t>
-  </si>
-  <si>
-    <t>Хирург Ирина</t>
-  </si>
-  <si>
-    <t>905-270-48-05</t>
-  </si>
-  <si>
-    <t>Хрусталева Нина Васильевна</t>
-  </si>
-  <si>
-    <t>Черлова Екатерина</t>
-  </si>
-  <si>
-    <t>921-39-50-136</t>
-  </si>
-  <si>
-    <t>Чистякова Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>952-206-05-93</t>
-  </si>
-  <si>
-    <t>Шаклеина Оксана</t>
-  </si>
-  <si>
-    <t>911-827-95-44</t>
-  </si>
-  <si>
-    <t>Эдита</t>
-  </si>
-  <si>
-    <t>905-259-52-54</t>
-  </si>
-  <si>
-    <t>Эстер</t>
-  </si>
-  <si>
-    <t>911-180-92-07</t>
-  </si>
-  <si>
-    <t>Юдина Лена</t>
-  </si>
-  <si>
-    <t>911-946-07-24</t>
-  </si>
-  <si>
-    <t>Юрьева Ольга</t>
-  </si>
-  <si>
-    <t>Янковская Любовь Алексеевна</t>
-  </si>
-  <si>
-    <t>909-577-19-97</t>
-  </si>
-  <si>
     <t>Тип изделия</t>
   </si>
   <si>
@@ -929,6 +929,12 @@
   </si>
   <si>
     <t>15 / пузатая / картинка</t>
+  </si>
+  <si>
+    <t>2011-Sep-26 / 00:09</t>
+  </si>
+  <si>
+    <t>10 / 14 см / Жостово</t>
   </si>
 </sst>
 </file>
@@ -983,14 +989,14 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,7 +1317,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1319,187 +1325,183 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B22"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B25"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1507,361 +1509,359 @@
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B27"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B29"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B30"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B31"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B34"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B35"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B36"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B37"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
         <v>131</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="A74" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A75" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1885,29 +1885,29 @@
       <c r="A76" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="B76"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
         <v>140</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1915,213 +1915,219 @@
       <c r="A80" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B87"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B88"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B89"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B90"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>162</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="B91"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B92" s="2" t="s">
         <v>164</v>
+      </c>
+      <c r="B92" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" s="2" t="s">
         <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>167</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>172</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="2" t="s">
         <v>177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>178</v>
-      </c>
-      <c r="B100" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>179</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B101"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>181</v>
-      </c>
-      <c r="B102" s="2" t="s">
         <v>182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>183</v>
-      </c>
-      <c r="B103" s="2" t="s">
         <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>185</v>
-      </c>
-      <c r="B104" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="B104" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>187</v>
-      </c>
-      <c r="B105" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="B105" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>189</v>
-      </c>
-      <c r="B106" s="2" t="s">
         <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2159,13 +2165,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2173,4244 +2179,4244 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8800</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>750</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2800</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1750</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>1400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1900</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>10</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>10</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>10</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>10</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>10</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>780</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>7</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>7</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>7</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>1180</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>7</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>1300</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
-        <v>5</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="3">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
-        <v>5</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
-        <v>5</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
-        <v>5</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4">
-        <v>5</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="3">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4">
-        <v>5</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4">
-        <v>5</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4">
-        <v>5</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="3">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
-        <v>5</v>
-      </c>
-      <c r="B51" s="4" t="s">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4">
-        <v>5</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="3">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4">
-        <v>5</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="3">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="3">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4">
-        <v>5</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="3">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4">
-        <v>5</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="3">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4">
-        <v>5</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4">
-        <v>5</v>
-      </c>
-      <c r="B59" s="4" t="s">
+      <c r="A59" s="3">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
-        <v>5</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="3">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
-        <v>5</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
-        <v>5</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="3">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
-        <v>5</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
-        <v>5</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="3">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4">
-        <v>5</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="3">
+        <v>5</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
-        <v>5</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="3">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4">
-        <v>5</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
-        <v>5</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="3">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4">
-        <v>5</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="3">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
-        <v>5</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="3">
+        <v>5</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4">
-        <v>5</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="3">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
-        <v>5</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="3">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4">
-        <v>5</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="3">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4">
-        <v>5</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="3">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4">
-        <v>5</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="3">
+        <v>5</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4">
-        <v>5</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="3">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
-        <v>5</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
-        <v>5</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4">
-        <v>5</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="3">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4">
-        <v>5</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="3">
+        <v>5</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
-        <v>5</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="3">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4">
-        <v>5</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="3">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
-        <v>5</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="3">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
-        <v>5</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="3">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
-        <v>5</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="3">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4">
-        <v>5</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="3">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
-        <v>5</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
-        <v>5</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="3">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
-        <v>5</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
-        <v>5</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="3">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
-        <v>5</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
-        <v>5</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="3">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
-        <v>5</v>
-      </c>
-      <c r="B94" s="4" t="s">
+      <c r="A94" s="3">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
-        <v>5</v>
-      </c>
-      <c r="B95" s="4" t="s">
+      <c r="A95" s="3">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
-        <v>5</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="3">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4">
-        <v>5</v>
-      </c>
-      <c r="B97" s="4" t="s">
+      <c r="A97" s="3">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
-        <v>5</v>
-      </c>
-      <c r="B98" s="4" t="s">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
+      <c r="A99" s="3">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4" t="s">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
+      <c r="A101" s="3">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
+      <c r="A102" s="3">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
+      <c r="A103" s="3">
+        <v>5</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="3">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4">
-        <v>5</v>
-      </c>
-      <c r="B105" s="4" t="s">
+      <c r="A105" s="3">
+        <v>5</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4">
-        <v>5</v>
-      </c>
-      <c r="B106" s="4" t="s">
+      <c r="A106" s="3">
+        <v>5</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4">
-        <v>5</v>
-      </c>
-      <c r="B107" s="4" t="s">
+      <c r="A107" s="3">
+        <v>5</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4">
-        <v>5</v>
-      </c>
-      <c r="B108" s="4" t="s">
+      <c r="A108" s="3">
+        <v>5</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4">
-        <v>5</v>
-      </c>
-      <c r="B109" s="4" t="s">
+      <c r="A109" s="3">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4">
-        <v>5</v>
-      </c>
-      <c r="B110" s="4" t="s">
+      <c r="A110" s="3">
+        <v>5</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4">
-        <v>5</v>
-      </c>
-      <c r="B111" s="4" t="s">
+      <c r="A111" s="3">
+        <v>5</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4">
-        <v>5</v>
-      </c>
-      <c r="B112" s="4" t="s">
+      <c r="A112" s="3">
+        <v>5</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4">
-        <v>5</v>
-      </c>
-      <c r="B113" s="4" t="s">
+      <c r="A113" s="3">
+        <v>5</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>3</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>3</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>3</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>3</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>3</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>3</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>3</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>3</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>3</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>3</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>3</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>3</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>3</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>3</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>3</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>3</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>3</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>3</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>3</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>3</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>3</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>3</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>3</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>3</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>0.5</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>0.5</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>0.5</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>0.5</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>0.5</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <v>0.05</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>0.05</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>0.05</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <v>0.05</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>0.05</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <v>0.05</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <v>0.05</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>0.05</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>0.05</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>0.05</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C224" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C262" s="4" t="s">
+      <c r="C262" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D262" s="4">
+      <c r="D262" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C263" s="4" t="s">
+      <c r="C263" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D263" s="4">
+      <c r="D263" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D264" s="4">
+      <c r="D264" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D265" s="4">
+      <c r="D265" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C266" s="4" t="s">
+      <c r="C266" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D266" s="4">
+      <c r="D266" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="C267" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D267" s="4">
+      <c r="D267" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D268" s="4">
+      <c r="D268" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C269" s="4" t="s">
+      <c r="C269" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D269" s="4">
+      <c r="D269" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D270" s="4">
+      <c r="D270" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C271" s="4" t="s">
+      <c r="C271" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D271" s="4">
+      <c r="D271" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D272" s="4">
+      <c r="D272" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C273" s="4" t="s">
+      <c r="C273" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D273" s="4">
+      <c r="D273" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C274" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D274" s="4">
+      <c r="D274" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C275" s="4" t="s">
+      <c r="C275" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D275" s="4">
+      <c r="D275" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C276" s="4" t="s">
+      <c r="C276" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D276" s="4">
+      <c r="D276" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D277" s="4">
+      <c r="D277" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D278" s="4">
+      <c r="D278" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D279" s="4">
+      <c r="D279" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D280" s="4">
+      <c r="D280" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C281" s="4" t="s">
+      <c r="C281" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D281" s="4">
+      <c r="D281" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C282" s="4" t="s">
+      <c r="C282" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D282" s="4">
+      <c r="D282" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D283" s="4">
+      <c r="D283" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C284" s="4" t="s">
+      <c r="C284" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D284" s="4">
+      <c r="D284" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="4" t="s">
+      <c r="C285" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D285" s="4">
+      <c r="D285" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C286" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D286" s="4">
+      <c r="D286" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C287" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D287" s="4">
+      <c r="D287" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D288" s="4">
+      <c r="D288" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C289" s="4" t="s">
+      <c r="C289" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D289" s="4">
+      <c r="D289" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C290" s="4" t="s">
+      <c r="C290" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D290" s="4">
+      <c r="D290" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C291" s="4" t="s">
+      <c r="C291" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D291" s="4">
+      <c r="D291" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D292" s="4">
+      <c r="D292" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="4" t="s">
+      <c r="C293" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D293" s="4">
+      <c r="D293" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C294" s="4" t="s">
+      <c r="C294" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D294" s="4">
+      <c r="D294" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C295" s="4" t="s">
+      <c r="C295" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D295" s="4">
+      <c r="D295" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C296" s="4" t="s">
+      <c r="C296" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D296" s="4">
+      <c r="D296" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C297" s="4" t="s">
+      <c r="C297" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D297" s="4">
+      <c r="D297" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
+      <c r="C298" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D298" s="4">
+      <c r="D298" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C299" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D299" s="4">
+      <c r="D299" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C300" s="4" t="s">
+      <c r="C300" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D300" s="4">
+      <c r="D300" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C301" s="4" t="s">
+      <c r="C301" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D301" s="4">
+      <c r="D301" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C302" s="4" t="s">
+      <c r="C302" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D302" s="4">
+      <c r="D302" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C303" s="4" t="s">
+      <c r="C303" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D303" s="4">
+      <c r="D303" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C304" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D304" s="4">
+      <c r="D304" s="3">
         <v>50</v>
       </c>
     </row>
@@ -6435,7 +6441,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -6451,184 +6457,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>6300</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1400</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1400</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1560</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2800</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>450</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
     </row>

--- a/files/export.xlsx
+++ b/files/export.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Художники" sheetId="1" r:id="rId4"/>
     <sheet name="Изделия" sheetId="2" r:id="rId5"/>
-    <sheet name="Платежи" sheetId="3" r:id="rId6"/>
+    <sheet name="Заготовки" sheetId="3" r:id="rId6"/>
+    <sheet name="Платежи" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>Художник</t>
   </si>
@@ -886,6 +887,102 @@
     <t>узкий</t>
   </si>
   <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>М-30 большая</t>
+  </si>
+  <si>
+    <t>М-30 пузатая бородатая</t>
+  </si>
+  <si>
+    <t>М-20 большая</t>
+  </si>
+  <si>
+    <t>М-20 пузатая</t>
+  </si>
+  <si>
+    <t>М-15 большая</t>
+  </si>
+  <si>
+    <t>М-15 пузатая</t>
+  </si>
+  <si>
+    <t>М-10 большая</t>
+  </si>
+  <si>
+    <t>М-10 пузатая</t>
+  </si>
+  <si>
+    <t>М-5 18 см</t>
+  </si>
+  <si>
+    <t>М-5 14 см</t>
+  </si>
+  <si>
+    <t>М-5 12 см</t>
+  </si>
+  <si>
+    <t>М-5 9см</t>
+  </si>
+  <si>
+    <t>М-3 14 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М-3 9 см</t>
+  </si>
+  <si>
+    <t>Колокольчик малый</t>
+  </si>
+  <si>
+    <t>Колокольчик большой</t>
+  </si>
+  <si>
+    <t>Яйцо</t>
+  </si>
+  <si>
+    <t>Шар малый</t>
+  </si>
+  <si>
+    <t>Шар большой</t>
+  </si>
+  <si>
+    <t>Неваляшка</t>
+  </si>
+  <si>
+    <t>Футляр 0,05</t>
+  </si>
+  <si>
+    <t>куколка сарафан</t>
+  </si>
+  <si>
+    <t>Яблоко</t>
+  </si>
+  <si>
+    <t>Груша</t>
+  </si>
+  <si>
+    <t>Браслет 1</t>
+  </si>
+  <si>
+    <t>Браслет 2</t>
+  </si>
+  <si>
+    <t>Браслет 3</t>
+  </si>
+  <si>
+    <t>Браслет 4</t>
+  </si>
+  <si>
+    <t>Браслет 5</t>
+  </si>
+  <si>
+    <t>Браслет 6</t>
+  </si>
+  <si>
+    <t>--Выберите заготовку--</t>
+  </si>
+  <si>
     <t>Мастер</t>
   </si>
   <si>
@@ -925,16 +1022,28 @@
     <t>7 / оформление / оформление</t>
   </si>
   <si>
-    <t>2011-Sep-23 / 01:09</t>
-  </si>
-  <si>
-    <t>15 / пузатая / картинка</t>
-  </si>
-  <si>
-    <t>2011-Sep-26 / 00:09</t>
-  </si>
-  <si>
-    <t>10 / 14 см / Жостово</t>
+    <t>2011-Sep-23 / 12:09</t>
+  </si>
+  <si>
+    <t>15 / пузатая / лицо</t>
+  </si>
+  <si>
+    <t>фы</t>
+  </si>
+  <si>
+    <t>2011-Sep-27 / 21:09</t>
+  </si>
+  <si>
+    <t>15 / большая / картинка</t>
+  </si>
+  <si>
+    <t>первый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ангел  / ангел  / ангел </t>
+  </si>
+  <si>
+    <t>второй</t>
   </si>
 </sst>
 </file>
@@ -6441,6 +6550,198 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
@@ -6458,25 +6759,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6484,10 +6785,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
@@ -6507,10 +6808,10 @@
         <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -6530,10 +6831,10 @@
         <v>51</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -6553,10 +6854,10 @@
         <v>184</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -6574,10 +6875,10 @@
         <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -6586,7 +6887,7 @@
         <v>1400</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -6597,10 +6898,10 @@
         <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -6609,7 +6910,7 @@
         <v>1560</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -6617,22 +6918,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -6643,39 +6944,43 @@
         <v>170</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>450</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>1750</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>1400</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>

--- a/files/export.xlsx
+++ b/files/export.xlsx
@@ -18,7 +18,589 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="348">
+  <si>
+    <t>Художник</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Чистякова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>952-206-05-93</t>
+  </si>
+  <si>
+    <t>Зайцева Ирина</t>
+  </si>
+  <si>
+    <t>911-027-90-32</t>
+  </si>
+  <si>
+    <t>Галузина Наталья</t>
+  </si>
+  <si>
+    <t>952-364-57-97</t>
+  </si>
+  <si>
+    <t>Бушейкина Елена</t>
+  </si>
+  <si>
+    <t>981-826-32-56</t>
+  </si>
+  <si>
+    <t>Гарина Ирина</t>
+  </si>
+  <si>
+    <t>905-266-35-07</t>
+  </si>
+  <si>
+    <t>Юрьева Ольга</t>
+  </si>
+  <si>
+    <t>Морозова Татьяна</t>
+  </si>
+  <si>
+    <t>921-188-03-45</t>
+  </si>
+  <si>
+    <t>Буршина Светлана</t>
+  </si>
+  <si>
+    <t>558-56-10</t>
+  </si>
+  <si>
+    <t>Ольга Жостово</t>
+  </si>
+  <si>
+    <t>921-970-84-55</t>
+  </si>
+  <si>
+    <t>Ивашина Жанна</t>
+  </si>
+  <si>
+    <t>965-020-02-67</t>
+  </si>
+  <si>
+    <t>Еловкова Марина</t>
+  </si>
+  <si>
+    <t>911-73-00-969</t>
+  </si>
+  <si>
+    <t>Лида</t>
+  </si>
+  <si>
+    <t>911-250-09-71</t>
+  </si>
+  <si>
+    <t>Соколова Наталья Никитична</t>
+  </si>
+  <si>
+    <t>952-238-66-21</t>
+  </si>
+  <si>
+    <t>Винтер Катерина</t>
+  </si>
+  <si>
+    <t>921-416-01-89</t>
+  </si>
+  <si>
+    <t>Татьяна Петровна</t>
+  </si>
+  <si>
+    <t>905-252-72-44</t>
+  </si>
+  <si>
+    <t>Юдина Лена</t>
+  </si>
+  <si>
+    <t>911-946-07-24</t>
+  </si>
+  <si>
+    <t>Бабушкина</t>
+  </si>
+  <si>
+    <t>911-752-63-74</t>
+  </si>
+  <si>
+    <t>Овсяникова</t>
+  </si>
+  <si>
+    <t>Езовитова Лиза</t>
+  </si>
+  <si>
+    <t>951-640-82-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анна Викторовна </t>
+  </si>
+  <si>
+    <t>951-640-99-20</t>
+  </si>
+  <si>
+    <t>Луга Татьяна</t>
+  </si>
+  <si>
+    <t>Виноградова Ольга</t>
+  </si>
+  <si>
+    <t>921-305-18-77</t>
+  </si>
+  <si>
+    <t>Ломоносовская Наталья</t>
+  </si>
+  <si>
+    <t>960-236-82-18</t>
+  </si>
+  <si>
+    <t>Дубровина Татьяна</t>
+  </si>
+  <si>
+    <t>Хирург Ирина</t>
+  </si>
+  <si>
+    <t>905-270-48-05</t>
+  </si>
+  <si>
+    <t>Хрусталева Нина Васильевна</t>
+  </si>
+  <si>
+    <t>Грудова Марина</t>
+  </si>
+  <si>
+    <t>911-732-28-37</t>
+  </si>
+  <si>
+    <t>Алексеева Вера</t>
+  </si>
+  <si>
+    <t>Иванова Света</t>
+  </si>
+  <si>
+    <t>Слотина Ольга</t>
+  </si>
+  <si>
+    <t>Дина Абрамовна</t>
+  </si>
+  <si>
+    <t>697-49-78</t>
+  </si>
+  <si>
+    <t>Марианна</t>
+  </si>
+  <si>
+    <t>911-764-14-42</t>
+  </si>
+  <si>
+    <t>Ушакова Валентина</t>
+  </si>
+  <si>
+    <t>Смирнова</t>
+  </si>
+  <si>
+    <t>Минина Ольга</t>
+  </si>
+  <si>
+    <t>Пупкевич</t>
+  </si>
+  <si>
+    <t>Вадим карнавал</t>
+  </si>
+  <si>
+    <t>960-234-88-08</t>
+  </si>
+  <si>
+    <t>Вадик</t>
+  </si>
+  <si>
+    <t>952-224-01-03</t>
+  </si>
+  <si>
+    <t>Гуля</t>
+  </si>
+  <si>
+    <t>965-047-41-36</t>
+  </si>
+  <si>
+    <t>Эдита</t>
+  </si>
+  <si>
+    <t>905-259-52-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Домосевич Наталья </t>
+  </si>
+  <si>
+    <t>921-38-38-885</t>
+  </si>
+  <si>
+    <t>Ольга каскадер</t>
+  </si>
+  <si>
+    <t>981-701-82-98</t>
+  </si>
+  <si>
+    <t>Катерина Горелово</t>
+  </si>
+  <si>
+    <t>921-928-29-30</t>
+  </si>
+  <si>
+    <t>Любивая Надежда</t>
+  </si>
+  <si>
+    <t>952-355-66-16</t>
+  </si>
+  <si>
+    <t>Подлесная Зоя</t>
+  </si>
+  <si>
+    <t>921-570-77-49</t>
+  </si>
+  <si>
+    <t>Евланова Елена</t>
+  </si>
+  <si>
+    <t>904-511-78-66</t>
+  </si>
+  <si>
+    <t>Станкевич Ольга</t>
+  </si>
+  <si>
+    <t>906-267-08-35</t>
+  </si>
+  <si>
+    <t>Куратова Людмила</t>
+  </si>
+  <si>
+    <t>911-239-53-51</t>
+  </si>
+  <si>
+    <t>Наталья Петровна коленки</t>
+  </si>
+  <si>
+    <t>921-09-44-693</t>
+  </si>
+  <si>
+    <t>Альбина Николаевна</t>
+  </si>
+  <si>
+    <t>442-55-27</t>
+  </si>
+  <si>
+    <t>Ровенко Марина (из Лавры)</t>
+  </si>
+  <si>
+    <t>911-939-00-20</t>
+  </si>
+  <si>
+    <t>Мильберг Вероника</t>
+  </si>
+  <si>
+    <t>921-387-83-79</t>
+  </si>
+  <si>
+    <t>Крисанова Ольга с Ленэкспо</t>
+  </si>
+  <si>
+    <t>911-277-87-49</t>
+  </si>
+  <si>
+    <t>Приколотина Галина Николаевна</t>
+  </si>
+  <si>
+    <t>911-264-86-92</t>
+  </si>
+  <si>
+    <t>Сергей Юрьевич (яйца сюжет)</t>
+  </si>
+  <si>
+    <t>905-217-37-89</t>
+  </si>
+  <si>
+    <t>Лариса Валентиновна болтушка</t>
+  </si>
+  <si>
+    <t>952-376-04-17</t>
+  </si>
+  <si>
+    <t>Савина Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>911-262-11-03</t>
+  </si>
+  <si>
+    <t>Косикова Ксения</t>
+  </si>
+  <si>
+    <t>911-932-55-00</t>
+  </si>
+  <si>
+    <t>Горбачёв Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>981-795-33-74</t>
+  </si>
+  <si>
+    <t>Поликова Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>921-794-25-53</t>
+  </si>
+  <si>
+    <t>Мурашко Анна</t>
+  </si>
+  <si>
+    <t>911-294-14-29</t>
+  </si>
+  <si>
+    <t>Обидова Ирина</t>
+  </si>
+  <si>
+    <t>904-640-33-52</t>
+  </si>
+  <si>
+    <t>Пузырева Галина часы</t>
+  </si>
+  <si>
+    <t>981-737-91-97</t>
+  </si>
+  <si>
+    <t>Виктор Жанны</t>
+  </si>
+  <si>
+    <t>906-275-71-94</t>
+  </si>
+  <si>
+    <t>Ковалева Ольга</t>
+  </si>
+  <si>
+    <t>753-45-98</t>
+  </si>
+  <si>
+    <t>Наталья коты</t>
+  </si>
+  <si>
+    <t>921-426-65-75</t>
+  </si>
+  <si>
+    <t>Морозова Лиза</t>
+  </si>
+  <si>
+    <t>950-026-65-06</t>
+  </si>
+  <si>
+    <t>Катя с тоненьким голосом</t>
+  </si>
+  <si>
+    <t>964-324-89-65</t>
+  </si>
+  <si>
+    <t>Головина Вика</t>
+  </si>
+  <si>
+    <t>952-237-64-64</t>
+  </si>
+  <si>
+    <t>Филипова Ольга</t>
+  </si>
+  <si>
+    <t>911-742-29-74</t>
+  </si>
+  <si>
+    <t>Андреева Анна</t>
+  </si>
+  <si>
+    <t>921-424-57-83</t>
+  </si>
+  <si>
+    <t>Эстер</t>
+  </si>
+  <si>
+    <t>911-180-92-07</t>
+  </si>
+  <si>
+    <t>Тетерина Антонина  Дмитриевна</t>
+  </si>
+  <si>
+    <t>709-66-84</t>
+  </si>
+  <si>
+    <t>Меккер Юлия</t>
+  </si>
+  <si>
+    <t>904-60-90-724</t>
+  </si>
+  <si>
+    <t>Сероклин Лена</t>
+  </si>
+  <si>
+    <t>Кривенко Алиса</t>
+  </si>
+  <si>
+    <t>921-770-55-60</t>
+  </si>
+  <si>
+    <t>Шаклеина Оксана</t>
+  </si>
+  <si>
+    <t>911-827-95-44</t>
+  </si>
+  <si>
+    <t>Безрукова  Нина Леонидовна</t>
+  </si>
+  <si>
+    <t>952-38-94-780</t>
+  </si>
+  <si>
+    <t>Дудяева Ася</t>
+  </si>
+  <si>
+    <t>906-22-66-517</t>
+  </si>
+  <si>
+    <t>Попова Наталья</t>
+  </si>
+  <si>
+    <t>325-47-34</t>
+  </si>
+  <si>
+    <t>Фаденкова Мария</t>
+  </si>
+  <si>
+    <t>952-342-75-16</t>
+  </si>
+  <si>
+    <t>Васюкова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>904-637-52-61</t>
+  </si>
+  <si>
+    <t>Марковский Андрей</t>
+  </si>
+  <si>
+    <t>911-738-68-13</t>
+  </si>
+  <si>
+    <t>Заморская Юлия</t>
+  </si>
+  <si>
+    <t>921-591-34-05</t>
+  </si>
+  <si>
+    <t>Ремезова Женя</t>
+  </si>
+  <si>
+    <t>952-360-65-28</t>
+  </si>
+  <si>
+    <t>Олег, лак</t>
+  </si>
+  <si>
+    <t>Саша, лак</t>
+  </si>
+  <si>
+    <t>Игорь, лак</t>
+  </si>
+  <si>
+    <t>Володя, лак</t>
+  </si>
+  <si>
+    <t>Пропастенко, лак</t>
+  </si>
+  <si>
+    <t>Ефименко Юлия</t>
+  </si>
+  <si>
+    <t>583-10-80</t>
+  </si>
+  <si>
+    <t>Фроолова Мария Игоревна</t>
+  </si>
+  <si>
+    <t>950-028-46-52</t>
+  </si>
+  <si>
+    <t>Янковская Любовь Алексеевна</t>
+  </si>
+  <si>
+    <t>909-577-19-97</t>
+  </si>
+  <si>
+    <t>Алексеева Анастасия</t>
+  </si>
+  <si>
+    <t>952-353-09-31</t>
+  </si>
+  <si>
+    <t>Ермакова Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>921-652-27-77</t>
+  </si>
+  <si>
+    <t>Муравьева Алена Геннадьевна</t>
+  </si>
+  <si>
+    <t>951-671-86-91</t>
+  </si>
+  <si>
+    <t>Васюкова Юлия</t>
+  </si>
+  <si>
+    <t>Фёдорова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>794-79-07</t>
+  </si>
+  <si>
+    <t>Гилемханова Венера Дамировна</t>
+  </si>
+  <si>
+    <t>921-648-42-35</t>
+  </si>
+  <si>
+    <t>Степанова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Андреева Юлия Александровна</t>
+  </si>
+  <si>
+    <t>904-550-03-89</t>
+  </si>
+  <si>
+    <t>Алексеева Астра Владимировна</t>
+  </si>
+  <si>
+    <t>921-186-09-44</t>
+  </si>
+  <si>
+    <t>Головина Наталия Владимировна</t>
+  </si>
+  <si>
+    <t>950-024-47-11</t>
+  </si>
+  <si>
+    <t>Черлова Екатерина</t>
+  </si>
+  <si>
+    <t>921-39-50-136</t>
+  </si>
+  <si>
+    <t>Гамзова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>921-387-09-74</t>
+  </si>
+  <si>
+    <t>Доброедова Ольга Петровна</t>
+  </si>
+  <si>
+    <t>953-366-30-29</t>
+  </si>
   <si>
     <t>Тип изделия</t>
   </si>
@@ -32,6 +614,375 @@
     <t>Цена</t>
   </si>
   <si>
+    <t>большая</t>
+  </si>
+  <si>
+    <t>картинка</t>
+  </si>
+  <si>
+    <t>оформление</t>
+  </si>
+  <si>
+    <t>лицо</t>
+  </si>
+  <si>
+    <t>пузатая</t>
+  </si>
+  <si>
+    <t>23 см</t>
+  </si>
+  <si>
+    <t>19 см</t>
+  </si>
+  <si>
+    <t>17 см</t>
+  </si>
+  <si>
+    <t>Жостово</t>
+  </si>
+  <si>
+    <t>14 см</t>
+  </si>
+  <si>
+    <t>оформление+лицо</t>
+  </si>
+  <si>
+    <t>сарафан</t>
+  </si>
+  <si>
+    <t>сарафан+лицо</t>
+  </si>
+  <si>
+    <t>18 см</t>
+  </si>
+  <si>
+    <t>картинка Лена</t>
+  </si>
+  <si>
+    <t>картинка Спас</t>
+  </si>
+  <si>
+    <t>картинка Юрьева, Галузина</t>
+  </si>
+  <si>
+    <t>картинка тройка</t>
+  </si>
+  <si>
+    <t>Хохлома целиковая</t>
+  </si>
+  <si>
+    <t>Хохлома платок часть</t>
+  </si>
+  <si>
+    <t>Хохлома платок доделка</t>
+  </si>
+  <si>
+    <t>Малевич</t>
+  </si>
+  <si>
+    <t>Сердце простое</t>
+  </si>
+  <si>
+    <t>Сердце Вика</t>
+  </si>
+  <si>
+    <t>Хохлома модерн</t>
+  </si>
+  <si>
+    <t>Карнавал</t>
+  </si>
+  <si>
+    <t>Шанель</t>
+  </si>
+  <si>
+    <t>Климт</t>
+  </si>
+  <si>
+    <t>Моне</t>
+  </si>
+  <si>
+    <t>Чёрная рябина</t>
+  </si>
+  <si>
+    <t>кот</t>
+  </si>
+  <si>
+    <t>балет</t>
+  </si>
+  <si>
+    <t>Хохлома</t>
+  </si>
+  <si>
+    <t>Сердце сложное</t>
+  </si>
+  <si>
+    <t>Жостово сложная</t>
+  </si>
+  <si>
+    <t>Круговая сказка</t>
+  </si>
+  <si>
+    <t>14 см пузатая</t>
+  </si>
+  <si>
+    <t>9 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жостово </t>
+  </si>
+  <si>
+    <t>неваляшка</t>
+  </si>
+  <si>
+    <t>картинка+лицо</t>
+  </si>
+  <si>
+    <t>малая</t>
+  </si>
+  <si>
+    <t>Жар-птица</t>
+  </si>
+  <si>
+    <t>Санта простой</t>
+  </si>
+  <si>
+    <t>Санта сложный</t>
+  </si>
+  <si>
+    <t>футляр</t>
+  </si>
+  <si>
+    <t>Жостово сложный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ангел </t>
+  </si>
+  <si>
+    <t>куколка</t>
+  </si>
+  <si>
+    <t>Цветы</t>
+  </si>
+  <si>
+    <t>яйцо</t>
+  </si>
+  <si>
+    <t>Сюжет зима</t>
+  </si>
+  <si>
+    <t>Ангел</t>
+  </si>
+  <si>
+    <t>Ангел с лицом</t>
+  </si>
+  <si>
+    <t>Гжель</t>
+  </si>
+  <si>
+    <t>Санта в ассортименте</t>
+  </si>
+  <si>
+    <t>Снегурочка</t>
+  </si>
+  <si>
+    <t>Бабочки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кот </t>
+  </si>
+  <si>
+    <t>Спас голубой</t>
+  </si>
+  <si>
+    <t>Спас золотой</t>
+  </si>
+  <si>
+    <t>Федоскино</t>
+  </si>
+  <si>
+    <t>Русский север</t>
+  </si>
+  <si>
+    <t>Фаберже</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Девушка в медальоне </t>
+  </si>
+  <si>
+    <t>Девушка в медальоне -лицо</t>
+  </si>
+  <si>
+    <t>Девушка в медальоне -оформлени</t>
+  </si>
+  <si>
+    <t>колокольчик</t>
+  </si>
+  <si>
+    <t>малый</t>
+  </si>
+  <si>
+    <t>Спас</t>
+  </si>
+  <si>
+    <t>большой</t>
+  </si>
+  <si>
+    <t>Шар</t>
+  </si>
+  <si>
+    <t>магнит</t>
+  </si>
+  <si>
+    <t>матрешка</t>
+  </si>
+  <si>
+    <t>цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хохлома </t>
+  </si>
+  <si>
+    <t>Полоски</t>
+  </si>
+  <si>
+    <t>Питер Вадима</t>
+  </si>
+  <si>
+    <t>Модерн</t>
+  </si>
+  <si>
+    <t>Питер Анны</t>
+  </si>
+  <si>
+    <t>круглый</t>
+  </si>
+  <si>
+    <t>браслет</t>
+  </si>
+  <si>
+    <t>широкий</t>
+  </si>
+  <si>
+    <t>Кракилюр</t>
+  </si>
+  <si>
+    <t>Огурцы</t>
+  </si>
+  <si>
+    <t>Сердце</t>
+  </si>
+  <si>
+    <t>Зебра</t>
+  </si>
+  <si>
+    <t>узор, поталь</t>
+  </si>
+  <si>
+    <t>средний шир.</t>
+  </si>
+  <si>
+    <t>средний узкий</t>
+  </si>
+  <si>
+    <t>узкий</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>М-30 большая</t>
+  </si>
+  <si>
+    <t>М-30 пузатая</t>
+  </si>
+  <si>
+    <t>М-20 большая</t>
+  </si>
+  <si>
+    <t>М-20 пузатая</t>
+  </si>
+  <si>
+    <t>М-15 большая</t>
+  </si>
+  <si>
+    <t>М-15 пузатая</t>
+  </si>
+  <si>
+    <t>М-10 большая</t>
+  </si>
+  <si>
+    <t>М-10 пузатая</t>
+  </si>
+  <si>
+    <t>М-5 18 см</t>
+  </si>
+  <si>
+    <t>М-5 14 см</t>
+  </si>
+  <si>
+    <t>М-5 12 см</t>
+  </si>
+  <si>
+    <t>М-5 9см</t>
+  </si>
+  <si>
+    <t>М-3 14 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М-3 9 см</t>
+  </si>
+  <si>
+    <t>Колокольчик малый</t>
+  </si>
+  <si>
+    <t>Колокольчик большой</t>
+  </si>
+  <si>
+    <t>Яйцо</t>
+  </si>
+  <si>
+    <t>Шар малый</t>
+  </si>
+  <si>
+    <t>Шар большой</t>
+  </si>
+  <si>
+    <t>Ангел12213</t>
+  </si>
+  <si>
+    <t>Неваляшка</t>
+  </si>
+  <si>
+    <t>Футляр 0,05</t>
+  </si>
+  <si>
+    <t>куколка сарафан</t>
+  </si>
+  <si>
+    <t>Яблоко</t>
+  </si>
+  <si>
+    <t>Груша</t>
+  </si>
+  <si>
+    <t>Браслет 1</t>
+  </si>
+  <si>
+    <t>Браслет 2</t>
+  </si>
+  <si>
+    <t>Браслет 3</t>
+  </si>
+  <si>
+    <t>Браслет 4</t>
+  </si>
+  <si>
+    <t>Браслет 5</t>
+  </si>
+  <si>
+    <t>Браслет 6</t>
+  </si>
+  <si>
     <t>Мастер</t>
   </si>
   <si>
@@ -48,6 +999,69 @@
   </si>
   <si>
     <t>автор комментария</t>
+  </si>
+  <si>
+    <t>2011-Sep-22 / 16:09</t>
+  </si>
+  <si>
+    <t>20 / большая / картинка</t>
+  </si>
+  <si>
+    <t>5 / 14 см пузатая / Карнавал</t>
+  </si>
+  <si>
+    <t>2011-Sep-22 / 17:09</t>
+  </si>
+  <si>
+    <t>10 / 17 см / картинка</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>7 / оформление / оформление</t>
+  </si>
+  <si>
+    <t>2011-Sep-23 / 12:09</t>
+  </si>
+  <si>
+    <t>15 / пузатая / лицо</t>
+  </si>
+  <si>
+    <t>фы</t>
+  </si>
+  <si>
+    <t>2011-Sep-28 / 10:09</t>
+  </si>
+  <si>
+    <t>10 / 14 см / Жостово</t>
+  </si>
+  <si>
+    <t>15 / большая / картинка</t>
+  </si>
+  <si>
+    <t>3 / 14 см / Жостово сложная</t>
+  </si>
+  <si>
+    <t>2011-Sep-29 / 15:09</t>
+  </si>
+  <si>
+    <t>30 / большая / картинка</t>
+  </si>
+  <si>
+    <t>10 / 17 см / Жостово</t>
+  </si>
+  <si>
+    <t>2011-Sep-29 / 16:09</t>
+  </si>
+  <si>
+    <t>2011-Sep-29 / 17:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 / 14 см / Жостово </t>
+  </si>
+  <si>
+    <t>2011-Sep-29 / 20:09</t>
   </si>
 </sst>
 </file>
@@ -95,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -104,6 +1118,12 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +1422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -413,8 +1433,830 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -437,7 +2279,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -451,16 +2293,4258 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>5</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>5</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>5</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>5</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>5</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>5</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3">
+        <v>5</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3">
+        <v>5</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3">
+        <v>5</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3">
+        <v>5</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3">
+        <v>5</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3">
+        <v>5</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3">
+        <v>5</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3">
+        <v>5</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>5</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3">
+        <v>5</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>5</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3">
+        <v>5</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3">
+        <v>5</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>5</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3">
+        <v>5</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3">
+        <v>5</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3">
+        <v>5</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3">
+        <v>5</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3">
+        <v>5</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
+        <v>5</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3">
+        <v>5</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3">
+        <v>5</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3">
+        <v>5</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3">
+        <v>5</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3">
+        <v>5</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3">
+        <v>5</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3">
+        <v>5</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3">
+        <v>5</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3">
+        <v>5</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3">
+        <v>3</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <v>3</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3">
+        <v>3</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3">
+        <v>3</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3">
+        <v>3</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3">
+        <v>3</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3">
+        <v>3</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3">
+        <v>3</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3">
+        <v>3</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3">
+        <v>3</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3">
+        <v>3</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3">
+        <v>3</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3">
+        <v>3</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3">
+        <v>3</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3">
+        <v>3</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3">
+        <v>3</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3">
+        <v>3</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B162" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B163" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B171" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D172" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D173" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D174" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D175" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D176" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D179" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D180" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D181" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D182" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D184" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D186" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D187" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D188" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D189" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D190" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D191" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D193" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D194" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D195" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D196" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D200" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D201" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D202" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D204" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D206" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D207" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D209" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D210" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D212" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D213" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D215" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D218" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D219" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D221" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D222" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D229" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D265" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D266" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D278" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D302" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D303" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D304" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -484,12 +6568,178 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,7 +6760,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -527,25 +6777,877 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
+      <c r="E2" s="4">
+        <v>6300</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1560</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>600</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>450</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>450</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>100500</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>650</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>650</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>650</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>650</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>650</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>650</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>650</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>450</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>450</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2100</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>450</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3500</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>450</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6300</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>450</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1750</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
